--- a/positive_yearly_earnings_per_share_2015_df.xlsx
+++ b/positive_yearly_earnings_per_share_2015_df.xlsx
@@ -1171,12 +1171,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1206,11 +1212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,7 +1531,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>11.39</v>
       </c>
     </row>
@@ -1531,7 +1539,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>6.75</v>
       </c>
     </row>
@@ -1539,7 +1547,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>9.279999999999999</v>
       </c>
     </row>
@@ -1547,7 +1555,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3.15</v>
       </c>
     </row>
@@ -1555,7 +1563,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2.94</v>
       </c>
     </row>
@@ -1563,7 +1571,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.26</v>
       </c>
     </row>
@@ -1571,7 +1579,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.31</v>
       </c>
     </row>
@@ -1579,7 +1587,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2.99</v>
       </c>
     </row>
@@ -1587,7 +1595,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8.91</v>
       </c>
     </row>
@@ -1595,7 +1603,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.36</v>
       </c>
     </row>
@@ -1603,7 +1611,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2.6</v>
       </c>
     </row>
@@ -1611,7 +1619,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>5.88</v>
       </c>
     </row>
@@ -1619,7 +1627,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>1.69</v>
       </c>
     </row>
@@ -1627,7 +1635,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1.52</v>
       </c>
     </row>
@@ -1635,7 +1643,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>2.08</v>
       </c>
     </row>
@@ -1643,7 +1651,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>2.07</v>
       </c>
     </row>
@@ -1651,7 +1659,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1.8</v>
       </c>
     </row>
@@ -1659,7 +1667,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>3.01</v>
       </c>
     </row>
@@ -1667,7 +1675,7 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>6.61</v>
       </c>
     </row>
@@ -1675,7 +1683,7 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>5.12</v>
       </c>
     </row>
@@ -1683,7 +1691,7 @@
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -1691,7 +1699,7 @@
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>0.68</v>
       </c>
     </row>
@@ -1699,7 +1707,7 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>1.13</v>
       </c>
     </row>
@@ -1707,7 +1715,7 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>2.46</v>
       </c>
     </row>
@@ -1715,7 +1723,7 @@
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>9.49</v>
       </c>
     </row>
@@ -1723,7 +1731,7 @@
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>9.15</v>
       </c>
     </row>
@@ -1731,7 +1739,7 @@
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>8.6</v>
       </c>
     </row>
@@ -1739,7 +1747,7 @@
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>1.42</v>
       </c>
     </row>
@@ -1747,7 +1755,7 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>1.28</v>
       </c>
     </row>
@@ -1755,7 +1763,7 @@
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>3.93</v>
       </c>
     </row>
@@ -1763,7 +1771,7 @@
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>9.73</v>
       </c>
     </row>
@@ -1771,7 +1779,7 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>4.93</v>
       </c>
     </row>
@@ -1779,7 +1787,7 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>5.95</v>
       </c>
     </row>
@@ -1787,7 +1795,7 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>2.47</v>
       </c>
     </row>
@@ -1795,7 +1803,7 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>1.21</v>
       </c>
     </row>
@@ -1803,7 +1811,7 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>5.54</v>
       </c>
     </row>
@@ -1811,7 +1819,7 @@
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>2.65</v>
       </c>
     </row>
@@ -1819,7 +1827,7 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2.66</v>
       </c>
     </row>
@@ -1827,7 +1835,7 @@
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>5.13</v>
       </c>
     </row>
@@ -1835,7 +1843,7 @@
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>36.76</v>
       </c>
     </row>
@@ -1843,7 +1851,7 @@
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>7.52</v>
       </c>
     </row>
@@ -1851,7 +1859,7 @@
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>1.78</v>
       </c>
     </row>
@@ -1859,7 +1867,7 @@
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>5.13</v>
       </c>
     </row>
@@ -1867,7 +1875,7 @@
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>2.59</v>
       </c>
     </row>
@@ -1875,7 +1883,7 @@
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>3.53</v>
       </c>
     </row>
@@ -1883,7 +1891,7 @@
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>1.8</v>
       </c>
     </row>
@@ -1891,7 +1899,7 @@
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>3.43</v>
       </c>
     </row>
@@ -1899,7 +1907,7 @@
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>15.38</v>
       </c>
     </row>
@@ -1907,7 +1915,7 @@
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>2.73</v>
       </c>
     </row>
@@ -1915,7 +1923,7 @@
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>2.05</v>
       </c>
     </row>
@@ -1923,7 +1931,7 @@
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>0.9399999999999999</v>
       </c>
     </row>
@@ -1931,7 +1939,7 @@
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>2.72</v>
       </c>
     </row>
@@ -1939,7 +1947,7 @@
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>3.79</v>
       </c>
     </row>
@@ -1947,7 +1955,7 @@
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>5.41</v>
       </c>
     </row>
@@ -1955,7 +1963,7 @@
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>3.66</v>
       </c>
     </row>
@@ -1963,7 +1971,7 @@
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>3.54</v>
       </c>
     </row>
@@ -1971,7 +1979,7 @@
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>8.710000000000001</v>
       </c>
     </row>
@@ -1979,7 +1987,7 @@
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>1.64</v>
       </c>
     </row>
@@ -1987,7 +1995,7 @@
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>4.44</v>
       </c>
     </row>
@@ -1995,7 +2003,7 @@
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>2.26</v>
       </c>
     </row>
@@ -2003,7 +2011,7 @@
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>2.02</v>
       </c>
     </row>
@@ -2011,7 +2019,7 @@
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>1.54</v>
       </c>
     </row>
@@ -2019,7 +2027,7 @@
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>2.97</v>
       </c>
     </row>
@@ -2027,7 +2035,7 @@
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>1.55</v>
       </c>
     </row>
@@ -2035,7 +2043,7 @@
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>3.13</v>
       </c>
     </row>
@@ -2043,7 +2051,7 @@
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>3.52</v>
       </c>
     </row>
@@ -2051,7 +2059,7 @@
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>8.17</v>
       </c>
     </row>
@@ -2059,7 +2067,7 @@
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>3.87</v>
       </c>
     </row>
@@ -2067,7 +2075,7 @@
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>1.53</v>
       </c>
     </row>
@@ -2075,7 +2083,7 @@
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>4.45</v>
       </c>
     </row>
@@ -2083,7 +2091,7 @@
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>2.93</v>
       </c>
     </row>
@@ -2091,7 +2099,7 @@
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>3.71</v>
       </c>
     </row>
@@ -2099,7 +2107,7 @@
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>15.3</v>
       </c>
     </row>
@@ -2107,7 +2115,7 @@
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
         <v>7.86</v>
       </c>
     </row>
@@ -2115,7 +2123,7 @@
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>1.9</v>
       </c>
     </row>
@@ -2123,7 +2131,7 @@
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>2.99</v>
       </c>
     </row>
@@ -2131,7 +2139,7 @@
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>7.15</v>
       </c>
     </row>
@@ -2139,7 +2147,7 @@
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>5.19</v>
       </c>
     </row>
@@ -2147,7 +2155,7 @@
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>5.41</v>
       </c>
     </row>
@@ -2155,7 +2163,7 @@
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>2.21</v>
       </c>
     </row>
@@ -2163,7 +2171,7 @@
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>1.76</v>
       </c>
     </row>
@@ -2171,7 +2179,7 @@
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2179,7 +2187,7 @@
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>3.68</v>
       </c>
     </row>
@@ -2187,7 +2195,7 @@
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -2195,7 +2203,7 @@
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>2.67</v>
       </c>
     </row>
@@ -2203,7 +2211,7 @@
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>2.01</v>
       </c>
     </row>
@@ -2211,7 +2219,7 @@
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
         <v>4.66</v>
       </c>
     </row>
@@ -2219,7 +2227,7 @@
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>2.46</v>
       </c>
     </row>
@@ -2227,7 +2235,7 @@
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>0.54</v>
       </c>
     </row>
@@ -2235,7 +2243,7 @@
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>3.21</v>
       </c>
     </row>
@@ -2243,7 +2251,7 @@
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>5.68</v>
       </c>
     </row>
@@ -2251,7 +2259,7 @@
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>2.17</v>
       </c>
     </row>
@@ -2259,7 +2267,7 @@
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>5.14</v>
       </c>
     </row>
@@ -2267,7 +2275,7 @@
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>3.5</v>
       </c>
     </row>
@@ -2275,7 +2283,7 @@
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>4.92</v>
       </c>
     </row>
@@ -2283,7 +2291,7 @@
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>2.05</v>
       </c>
     </row>
@@ -2291,7 +2299,7 @@
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>4.81</v>
       </c>
     </row>
@@ -2299,7 +2307,7 @@
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>4.95</v>
       </c>
     </row>
@@ -2307,7 +2315,7 @@
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>5.08</v>
       </c>
     </row>
@@ -2315,7 +2323,7 @@
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>1.56</v>
       </c>
     </row>
@@ -2323,7 +2331,7 @@
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>2.91</v>
       </c>
     </row>
@@ -2331,7 +2339,7 @@
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>4.68</v>
       </c>
     </row>
@@ -2339,7 +2347,7 @@
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>5.52</v>
       </c>
     </row>
@@ -2347,7 +2355,7 @@
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>4</v>
       </c>
     </row>
@@ -2355,7 +2363,7 @@
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>5.56</v>
       </c>
     </row>
@@ -2363,7 +2371,7 @@
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>4.05</v>
       </c>
     </row>
@@ -2371,7 +2379,7 @@
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>1.27</v>
       </c>
     </row>
@@ -2379,7 +2387,7 @@
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>2.81</v>
       </c>
     </row>
@@ -2387,7 +2395,7 @@
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>1.43</v>
       </c>
     </row>
@@ -2395,7 +2403,7 @@
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>3.38</v>
       </c>
     </row>
@@ -2403,7 +2411,7 @@
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>4.07</v>
       </c>
     </row>
@@ -2411,7 +2419,7 @@
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>3.61</v>
       </c>
     </row>
@@ -2419,7 +2427,7 @@
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>3.13</v>
       </c>
     </row>
@@ -2427,7 +2435,7 @@
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
         <v>2.87</v>
       </c>
     </row>
@@ -2435,7 +2443,7 @@
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
         <v>5.71</v>
       </c>
     </row>
@@ -2443,7 +2451,7 @@
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
         <v>4.01</v>
       </c>
     </row>
@@ -2451,7 +2459,7 @@
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
         <v>3.25</v>
       </c>
     </row>
@@ -2459,7 +2467,7 @@
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
         <v>2.37</v>
       </c>
     </row>
@@ -2467,7 +2475,7 @@
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -2475,7 +2483,7 @@
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
         <v>2.77</v>
       </c>
     </row>
@@ -2483,7 +2491,7 @@
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
         <v>3.5</v>
       </c>
     </row>
@@ -2491,7 +2499,7 @@
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
         <v>0.92</v>
       </c>
     </row>
@@ -2499,7 +2507,7 @@
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
         <v>4.25</v>
       </c>
     </row>
@@ -2507,7 +2515,7 @@
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
         <v>2.3</v>
       </c>
     </row>
@@ -2515,7 +2523,7 @@
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>2.42</v>
       </c>
     </row>
@@ -2523,7 +2531,7 @@
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
         <v>5.87</v>
       </c>
     </row>
@@ -2531,7 +2539,7 @@
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -2539,7 +2547,7 @@
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="2">
         <v>1.86</v>
       </c>
     </row>
@@ -2547,7 +2555,7 @@
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="2">
         <v>1.77</v>
       </c>
     </row>
@@ -2555,7 +2563,7 @@
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
         <v>1.31</v>
       </c>
     </row>
@@ -2563,7 +2571,7 @@
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
         <v>1.97</v>
       </c>
     </row>
@@ -2571,7 +2579,7 @@
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="2">
         <v>3.7</v>
       </c>
     </row>
@@ -2579,7 +2587,7 @@
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
         <v>1.37</v>
       </c>
     </row>
@@ -2587,7 +2595,7 @@
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="2">
         <v>5.07</v>
       </c>
     </row>
@@ -2595,7 +2603,7 @@
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
         <v>2.22</v>
       </c>
     </row>
@@ -2603,7 +2611,7 @@
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
         <v>3.04</v>
       </c>
     </row>
@@ -2611,7 +2619,7 @@
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
         <v>3.61</v>
       </c>
     </row>
@@ -2619,7 +2627,7 @@
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="2">
         <v>1.73</v>
       </c>
     </row>
@@ -2627,7 +2635,7 @@
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="2">
         <v>2.85</v>
       </c>
     </row>
@@ -2635,7 +2643,7 @@
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="2">
         <v>2.01</v>
       </c>
     </row>
@@ -2643,7 +2651,7 @@
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
         <v>3.66</v>
       </c>
     </row>
@@ -2651,7 +2659,7 @@
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
         <v>3.04</v>
       </c>
     </row>
@@ -2659,7 +2667,7 @@
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
         <v>5.42</v>
       </c>
     </row>
@@ -2667,7 +2675,7 @@
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="2">
         <v>9.23</v>
       </c>
     </row>
@@ -2675,7 +2683,7 @@
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
         <v>12.37</v>
       </c>
     </row>
@@ -2683,7 +2691,7 @@
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="2">
         <v>2.02</v>
       </c>
     </row>
@@ -2691,7 +2699,7 @@
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="2">
         <v>1.02</v>
       </c>
     </row>
@@ -2699,7 +2707,7 @@
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
         <v>6.11</v>
       </c>
     </row>
@@ -2707,7 +2715,7 @@
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="2">
         <v>4.65</v>
       </c>
     </row>
@@ -2715,7 +2723,7 @@
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
         <v>4.15</v>
       </c>
     </row>
@@ -2723,7 +2731,7 @@
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
         <v>2.9</v>
       </c>
     </row>
@@ -2731,7 +2739,7 @@
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
         <v>2.39</v>
       </c>
     </row>
@@ -2739,7 +2747,7 @@
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
         <v>1.14</v>
       </c>
     </row>
@@ -2747,7 +2755,7 @@
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="2">
         <v>11.69</v>
       </c>
     </row>
@@ -2755,7 +2763,7 @@
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
         <v>3.61</v>
       </c>
     </row>
@@ -2763,7 +2771,7 @@
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
         <v>0.82</v>
       </c>
     </row>
@@ -2771,7 +2779,7 @@
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
         <v>4.02</v>
       </c>
     </row>
@@ -2779,7 +2787,7 @@
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="2">
         <v>5.14</v>
       </c>
     </row>
@@ -2787,7 +2795,7 @@
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
         <v>2.35</v>
       </c>
     </row>
@@ -2795,7 +2803,7 @@
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="2">
         <v>4.74</v>
       </c>
     </row>
@@ -2803,7 +2811,7 @@
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
         <v>4.05</v>
       </c>
     </row>
@@ -2811,7 +2819,7 @@
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
         <v>3.71</v>
       </c>
     </row>
@@ -2819,7 +2827,7 @@
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="2">
         <v>0.47</v>
       </c>
     </row>
@@ -2827,7 +2835,7 @@
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
         <v>6.11</v>
       </c>
     </row>
@@ -2835,7 +2843,7 @@
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
         <v>3.9</v>
       </c>
     </row>
@@ -2843,7 +2851,7 @@
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
         <v>1.72</v>
       </c>
     </row>
@@ -2851,7 +2859,7 @@
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
         <v>3.15</v>
       </c>
     </row>
@@ -2859,7 +2867,7 @@
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="2">
         <v>5.78</v>
       </c>
     </row>
@@ -2867,7 +2875,7 @@
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
         <v>0.22</v>
       </c>
     </row>
@@ -2875,7 +2883,7 @@
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
         <v>8.539999999999999</v>
       </c>
     </row>
@@ -2883,7 +2891,7 @@
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
         <v>13.48</v>
       </c>
     </row>
@@ -2891,7 +2899,7 @@
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
         <v>2.07</v>
       </c>
     </row>
@@ -2899,7 +2907,7 @@
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="2">
         <v>5.19</v>
       </c>
     </row>
@@ -2907,7 +2915,7 @@
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="2">
         <v>2.41</v>
       </c>
     </row>
@@ -2915,7 +2923,7 @@
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -2923,7 +2931,7 @@
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="2">
         <v>2.25</v>
       </c>
     </row>
@@ -2931,7 +2939,7 @@
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="2">
         <v>1.11</v>
       </c>
     </row>
@@ -2939,7 +2947,7 @@
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
         <v>0.58</v>
       </c>
     </row>
@@ -2947,7 +2955,7 @@
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="2">
         <v>15.87</v>
       </c>
     </row>
@@ -2955,7 +2963,7 @@
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
         <v>5.16</v>
       </c>
     </row>
@@ -2963,7 +2971,7 @@
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="2">
         <v>2.26</v>
       </c>
     </row>
@@ -2971,7 +2979,7 @@
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="2">
         <v>3.69</v>
       </c>
     </row>
@@ -2979,7 +2987,7 @@
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="2">
         <v>2.42</v>
       </c>
     </row>
@@ -2987,7 +2995,7 @@
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="2">
         <v>1.62</v>
       </c>
     </row>
@@ -2995,7 +3003,7 @@
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="2">
         <v>6.05</v>
       </c>
     </row>
@@ -3003,7 +3011,7 @@
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
         <v>3.79</v>
       </c>
     </row>
@@ -3011,7 +3019,7 @@
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="2">
         <v>1.76</v>
       </c>
     </row>
@@ -3019,7 +3027,7 @@
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="2">
         <v>2.01</v>
       </c>
     </row>
@@ -3027,7 +3035,7 @@
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="2">
         <v>2.26</v>
       </c>
     </row>
@@ -3035,7 +3043,7 @@
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="2">
         <v>2.78</v>
       </c>
     </row>
@@ -3043,7 +3051,7 @@
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="2">
         <v>0.1</v>
       </c>
     </row>
@@ -3051,7 +3059,7 @@
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="2">
         <v>2.77</v>
       </c>
     </row>
@@ -3059,7 +3067,7 @@
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="2">
         <v>1.69</v>
       </c>
     </row>
@@ -3067,7 +3075,7 @@
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
         <v>4.35</v>
       </c>
     </row>
@@ -3075,7 +3083,7 @@
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="2">
         <v>3.49</v>
       </c>
     </row>
@@ -3083,7 +3091,7 @@
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="2">
         <v>4.28</v>
       </c>
     </row>
@@ -3091,7 +3099,7 @@
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="2">
         <v>4.41</v>
       </c>
     </row>
@@ -3099,7 +3107,7 @@
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="2">
         <v>3.57</v>
       </c>
     </row>
@@ -3107,7 +3115,7 @@
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="2">
         <v>2.31</v>
       </c>
     </row>
@@ -3115,7 +3123,7 @@
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="2">
         <v>3.87</v>
       </c>
     </row>
@@ -3123,7 +3131,7 @@
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="2">
         <v>2.13</v>
       </c>
     </row>
@@ -3131,7 +3139,7 @@
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="2">
         <v>2.27</v>
       </c>
     </row>
@@ -3139,7 +3147,7 @@
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
         <v>11.62</v>
       </c>
     </row>
@@ -3147,7 +3155,7 @@
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="2">
         <v>3.36</v>
       </c>
     </row>
@@ -3155,7 +3163,7 @@
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="2">
         <v>2.71</v>
       </c>
     </row>
@@ -3163,7 +3171,7 @@
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="2">
         <v>4.11</v>
       </c>
     </row>
@@ -3171,7 +3179,7 @@
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="2">
         <v>0.74</v>
       </c>
     </row>
@@ -3179,7 +3187,7 @@
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="2">
         <v>3.3</v>
       </c>
     </row>
@@ -3187,7 +3195,7 @@
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="2">
         <v>9.710000000000001</v>
       </c>
     </row>
@@ -3195,7 +3203,7 @@
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="2">
         <v>9.619999999999999</v>
       </c>
     </row>
@@ -3203,7 +3211,7 @@
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="2">
         <v>4.3</v>
       </c>
     </row>
@@ -3211,7 +3219,7 @@
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="2">
         <v>3.36</v>
       </c>
     </row>
@@ -3219,7 +3227,7 @@
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="2">
         <v>4.41</v>
       </c>
     </row>
@@ -3227,7 +3235,7 @@
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="2">
         <v>3.08</v>
       </c>
     </row>
@@ -3235,7 +3243,7 @@
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="2">
         <v>3.22</v>
       </c>
     </row>
@@ -3243,7 +3251,7 @@
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="2">
         <v>1.03</v>
       </c>
     </row>
@@ -3251,7 +3259,7 @@
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="2">
         <v>1.08</v>
       </c>
     </row>
@@ -3259,7 +3267,7 @@
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="2">
         <v>4.82</v>
       </c>
     </row>
@@ -3267,7 +3275,7 @@
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="2">
         <v>1.84</v>
       </c>
     </row>
@@ -3275,7 +3283,7 @@
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="2">
         <v>6.37</v>
       </c>
     </row>
@@ -3283,7 +3291,7 @@
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="2">
         <v>4.7</v>
       </c>
     </row>
@@ -3291,7 +3299,7 @@
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="2">
         <v>4.49</v>
       </c>
     </row>
@@ -3299,7 +3307,7 @@
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="2">
         <v>4.61</v>
       </c>
     </row>
@@ -3307,7 +3315,7 @@
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="2">
         <v>2.59</v>
       </c>
     </row>
@@ -3315,7 +3323,7 @@
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="2">
         <v>3.28</v>
       </c>
     </row>
@@ -3323,7 +3331,7 @@
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="2">
         <v>3.14</v>
       </c>
     </row>
@@ -3331,7 +3339,7 @@
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="2">
         <v>4.31</v>
       </c>
     </row>
@@ -3339,7 +3347,7 @@
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="2">
         <v>3.01</v>
       </c>
     </row>
@@ -3347,7 +3355,7 @@
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="2">
         <v>7.72</v>
       </c>
     </row>
@@ -3355,7 +3363,7 @@
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="2">
         <v>2.67</v>
       </c>
     </row>
@@ -3363,7 +3371,7 @@
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="2">
         <v>4.85</v>
       </c>
     </row>
@@ -3371,7 +3379,7 @@
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="2">
         <v>2.79</v>
       </c>
     </row>
@@ -3379,7 +3387,7 @@
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="2">
         <v>5.29</v>
       </c>
     </row>
@@ -3387,7 +3395,7 @@
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="2">
         <v>1.58</v>
       </c>
     </row>
@@ -3395,7 +3403,7 @@
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="2">
         <v>1.49</v>
       </c>
     </row>
@@ -3403,7 +3411,7 @@
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="2">
         <v>7.22</v>
       </c>
     </row>
@@ -3411,7 +3419,7 @@
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="2">
         <v>12.75</v>
       </c>
     </row>
@@ -3419,7 +3427,7 @@
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="2">
         <v>2.71</v>
       </c>
     </row>
@@ -3427,7 +3435,7 @@
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="2">
         <v>2.66</v>
       </c>
     </row>
@@ -3435,7 +3443,7 @@
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
         <v>2.56</v>
       </c>
     </row>
@@ -3443,7 +3451,7 @@
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="2">
         <v>6.11</v>
       </c>
     </row>
@@ -3451,7 +3459,7 @@
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="2">
         <v>0.43</v>
       </c>
     </row>
@@ -3459,7 +3467,7 @@
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="2">
         <v>0.29</v>
       </c>
     </row>
@@ -3467,7 +3475,7 @@
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
         <v>1.55</v>
       </c>
     </row>
@@ -3475,7 +3483,7 @@
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="2">
         <v>5.13</v>
       </c>
     </row>
@@ -3483,7 +3491,7 @@
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="2">
         <v>1.77</v>
       </c>
     </row>
@@ -3491,7 +3499,7 @@
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="2">
         <v>4.03</v>
       </c>
     </row>
@@ -3499,7 +3507,7 @@
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="2">
         <v>1.11</v>
       </c>
     </row>
@@ -3507,7 +3515,7 @@
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="2">
         <v>1.14</v>
       </c>
     </row>
@@ -3515,7 +3523,7 @@
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -3523,7 +3531,7 @@
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="2">
         <v>1.09</v>
       </c>
     </row>
@@ -3531,7 +3539,7 @@
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="2">
         <v>1.17</v>
       </c>
     </row>
@@ -3539,7 +3547,7 @@
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="2">
         <v>4.43</v>
       </c>
     </row>
@@ -3547,7 +3555,7 @@
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="2">
         <v>9.32</v>
       </c>
     </row>
@@ -3555,7 +3563,7 @@
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="2">
         <v>1.86</v>
       </c>
     </row>
@@ -3563,7 +3571,7 @@
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="2">
         <v>0.86</v>
       </c>
     </row>
@@ -3571,7 +3579,7 @@
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="2">
         <v>2.04</v>
       </c>
     </row>
@@ -3579,7 +3587,7 @@
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="2">
         <v>4.52</v>
       </c>
     </row>
@@ -3587,7 +3595,7 @@
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="2">
         <v>1.81</v>
       </c>
     </row>
@@ -3595,7 +3603,7 @@
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="3">
         <v>50.09</v>
       </c>
     </row>
@@ -3603,7 +3611,7 @@
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="2">
         <v>2.26</v>
       </c>
     </row>
@@ -3611,7 +3619,7 @@
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="2">
         <v>3.32</v>
       </c>
     </row>
@@ -3619,7 +3627,7 @@
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="2">
         <v>3.71</v>
       </c>
     </row>
@@ -3627,7 +3635,7 @@
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="2">
         <v>1.13</v>
       </c>
     </row>
@@ -3635,7 +3643,7 @@
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="2">
         <v>4.11</v>
       </c>
     </row>
@@ -3643,7 +3651,7 @@
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="2">
         <v>2.16</v>
       </c>
     </row>
@@ -3651,7 +3659,7 @@
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="2">
         <v>7.08</v>
       </c>
     </row>
@@ -3659,7 +3667,7 @@
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="2">
         <v>1.38</v>
       </c>
     </row>
@@ -3667,7 +3675,7 @@
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="2">
         <v>4.42</v>
       </c>
     </row>
@@ -3675,7 +3683,7 @@
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="2">
         <v>7.52</v>
       </c>
     </row>
@@ -3683,7 +3691,7 @@
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="2">
         <v>3.94</v>
       </c>
     </row>
@@ -3691,7 +3699,7 @@
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="2">
         <v>5.18</v>
       </c>
     </row>
@@ -3699,7 +3707,7 @@
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="2">
         <v>1.01</v>
       </c>
     </row>
@@ -3707,7 +3715,7 @@
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="2">
         <v>12.37</v>
       </c>
     </row>
@@ -3715,7 +3723,7 @@
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="2">
         <v>7.78</v>
       </c>
     </row>
@@ -3723,7 +3731,7 @@
       <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="2">
         <v>5.33</v>
       </c>
     </row>
@@ -3731,7 +3739,7 @@
       <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="2">
         <v>1.59</v>
       </c>
     </row>
@@ -3739,7 +3747,7 @@
       <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="2">
         <v>5.39</v>
       </c>
     </row>
@@ -3747,7 +3755,7 @@
       <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3755,7 +3763,7 @@
       <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="2">
         <v>3.26</v>
       </c>
     </row>
@@ -3763,7 +3771,7 @@
       <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="2">
         <v>2.17</v>
       </c>
     </row>
@@ -3771,7 +3779,7 @@
       <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="2">
         <v>5.75</v>
       </c>
     </row>
@@ -3779,7 +3787,7 @@
       <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="2">
         <v>3.03</v>
       </c>
     </row>
@@ -3787,7 +3795,7 @@
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="2">
         <v>6.17</v>
       </c>
     </row>
@@ -3795,7 +3803,7 @@
       <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="2">
         <v>2.72</v>
       </c>
     </row>
@@ -3803,7 +3811,7 @@
       <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="2">
         <v>0.97</v>
       </c>
     </row>
@@ -3811,7 +3819,7 @@
       <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="2">
         <v>7.96</v>
       </c>
     </row>
@@ -3819,7 +3827,7 @@
       <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="2">
         <v>6.15</v>
       </c>
     </row>
@@ -3827,7 +3835,7 @@
       <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="2">
         <v>6.92</v>
       </c>
     </row>
@@ -3835,7 +3843,7 @@
       <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="2">
         <v>4.47</v>
       </c>
     </row>
@@ -3843,7 +3851,7 @@
       <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="2">
         <v>2.14</v>
       </c>
     </row>
@@ -3851,7 +3859,7 @@
       <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="2">
         <v>1.84</v>
       </c>
     </row>
@@ -3859,7 +3867,7 @@
       <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="2">
         <v>5.22</v>
       </c>
     </row>
@@ -3867,7 +3875,7 @@
       <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="2">
         <v>1.04</v>
       </c>
     </row>
@@ -3875,7 +3883,7 @@
       <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="2">
         <v>0.29</v>
       </c>
     </row>
@@ -3883,7 +3891,7 @@
       <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="2">
         <v>1.63</v>
       </c>
     </row>
@@ -3891,7 +3899,7 @@
       <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="2">
         <v>11.38</v>
       </c>
     </row>
@@ -3899,7 +3907,7 @@
       <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="2">
         <v>3.33</v>
       </c>
     </row>
@@ -3907,7 +3915,7 @@
       <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="2">
         <v>1.02</v>
       </c>
     </row>
@@ -3915,7 +3923,7 @@
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="2">
         <v>7.26</v>
       </c>
     </row>
@@ -3923,7 +3931,7 @@
       <c r="A302" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="2">
         <v>4.68</v>
       </c>
     </row>
@@ -3931,7 +3939,7 @@
       <c r="A303" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="2">
         <v>2.6</v>
       </c>
     </row>
@@ -3939,7 +3947,7 @@
       <c r="A304" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="2">
         <v>5.88</v>
       </c>
     </row>
@@ -3947,7 +3955,7 @@
       <c r="A305" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="2">
         <v>4.26</v>
       </c>
     </row>
@@ -3955,7 +3963,7 @@
       <c r="A306" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="2">
         <v>0.21</v>
       </c>
     </row>
@@ -3963,7 +3971,7 @@
       <c r="A307" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="2">
         <v>3.02</v>
       </c>
     </row>
@@ -3971,7 +3979,7 @@
       <c r="A308" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="2">
         <v>5.43</v>
       </c>
     </row>
@@ -3979,7 +3987,7 @@
       <c r="A309" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="2">
         <v>3.62</v>
       </c>
     </row>
@@ -3987,7 +3995,7 @@
       <c r="A310" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="2">
         <v>4.53</v>
       </c>
     </row>
@@ -3995,7 +4003,7 @@
       <c r="A311" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="2">
         <v>5.38</v>
       </c>
     </row>
@@ -4003,7 +4011,7 @@
       <c r="A312" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="2">
         <v>4.21</v>
       </c>
     </row>
@@ -4011,7 +4019,7 @@
       <c r="A313" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="2">
         <v>2.66</v>
       </c>
     </row>
@@ -4019,7 +4027,7 @@
       <c r="A314" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="2">
         <v>3.82</v>
       </c>
     </row>
@@ -4027,7 +4035,7 @@
       <c r="A315" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="2">
         <v>1.27</v>
       </c>
     </row>
@@ -4035,7 +4043,7 @@
       <c r="A316" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="2">
         <v>1.16</v>
       </c>
     </row>
@@ -4043,7 +4051,7 @@
       <c r="A317" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="2">
         <v>2.37</v>
       </c>
     </row>
@@ -4051,7 +4059,7 @@
       <c r="A318" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="2">
         <v>1.94</v>
       </c>
     </row>
@@ -4059,7 +4067,7 @@
       <c r="A319" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -4067,7 +4075,7 @@
       <c r="A320" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="2">
         <v>5.98</v>
       </c>
     </row>
@@ -4075,7 +4083,7 @@
       <c r="A321" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="2">
         <v>2.04</v>
       </c>
     </row>
@@ -4083,7 +4091,7 @@
       <c r="A322" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="2">
         <v>3.75</v>
       </c>
     </row>
@@ -4091,7 +4099,7 @@
       <c r="A323" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="2">
         <v>3.2</v>
       </c>
     </row>
@@ -4099,7 +4107,7 @@
       <c r="A324" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="2">
         <v>4.21</v>
       </c>
     </row>
@@ -4107,7 +4115,7 @@
       <c r="A325" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="2">
         <v>4.96</v>
       </c>
     </row>
@@ -4115,7 +4123,7 @@
       <c r="A326" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="2">
         <v>1.38</v>
       </c>
     </row>
@@ -4123,7 +4131,7 @@
       <c r="A327" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="2">
         <v>10.99</v>
       </c>
     </row>
@@ -4131,7 +4139,7 @@
       <c r="A328" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="2">
         <v>3.03</v>
       </c>
     </row>
@@ -4139,7 +4147,7 @@
       <c r="A329" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="2">
         <v>12.5</v>
       </c>
     </row>
@@ -4147,7 +4155,7 @@
       <c r="A330" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="2">
         <v>1.98</v>
       </c>
     </row>
@@ -4155,7 +4163,7 @@
       <c r="A331" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="2">
         <v>2.86</v>
       </c>
     </row>
@@ -4163,7 +4171,7 @@
       <c r="A332" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="2">
         <v>2.15</v>
       </c>
     </row>
@@ -4171,7 +4179,7 @@
       <c r="A333" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="2">
         <v>1.08</v>
       </c>
     </row>
@@ -4179,7 +4187,7 @@
       <c r="A334" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="2">
         <v>19.52</v>
       </c>
     </row>
@@ -4187,7 +4195,7 @@
       <c r="A335" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="2">
         <v>1.3</v>
       </c>
     </row>
@@ -4195,7 +4203,7 @@
       <c r="A336" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="2">
         <v>6.89</v>
       </c>
     </row>
@@ -4203,7 +4211,7 @@
       <c r="A337" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4211,7 +4219,7 @@
       <c r="A338" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="2">
         <v>6.1</v>
       </c>
     </row>
@@ -4219,7 +4227,7 @@
       <c r="A339" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="2">
         <v>3.51</v>
       </c>
     </row>
@@ -4227,7 +4235,7 @@
       <c r="A340" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="2">
         <v>5.51</v>
       </c>
     </row>
@@ -4235,7 +4243,7 @@
       <c r="A341" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="2">
         <v>5.38</v>
       </c>
     </row>
@@ -4243,7 +4251,7 @@
       <c r="A342" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="2">
         <v>1.7</v>
       </c>
     </row>
@@ -4251,7 +4259,7 @@
       <c r="A343" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="2">
         <v>8.720000000000001</v>
       </c>
     </row>
@@ -4259,7 +4267,7 @@
       <c r="A344" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="2">
         <v>4.13</v>
       </c>
     </row>
@@ -4267,7 +4275,7 @@
       <c r="A345" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="2">
         <v>2.42</v>
       </c>
     </row>
@@ -4275,7 +4283,7 @@
       <c r="A346" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="2">
         <v>4.78</v>
       </c>
     </row>
@@ -4283,7 +4291,7 @@
       <c r="A347" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="2">
         <v>8</v>
       </c>
     </row>
@@ -4291,7 +4299,7 @@
       <c r="A348" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="2">
         <v>1.66</v>
       </c>
     </row>
@@ -4299,7 +4307,7 @@
       <c r="A349" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="2">
         <v>3.61</v>
       </c>
     </row>
@@ -4307,7 +4315,7 @@
       <c r="A350" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="2">
         <v>3.07</v>
       </c>
     </row>
@@ -4315,7 +4323,7 @@
       <c r="A351" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="2">
         <v>3.29</v>
       </c>
     </row>
@@ -4323,7 +4331,7 @@
       <c r="A352" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="2">
         <v>1.26</v>
       </c>
     </row>
@@ -4331,7 +4339,7 @@
       <c r="A353" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="2">
         <v>4.38</v>
       </c>
     </row>
@@ -4339,7 +4347,7 @@
       <c r="A354" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="2">
         <v>5.7</v>
       </c>
     </row>
@@ -4347,7 +4355,7 @@
       <c r="A355" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="2">
         <v>6.31</v>
       </c>
     </row>
@@ -4355,7 +4363,7 @@
       <c r="A356" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="2">
         <v>2.36</v>
       </c>
     </row>
@@ -4363,7 +4371,7 @@
       <c r="A357" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="2">
         <v>4.18</v>
       </c>
     </row>
@@ -4371,7 +4379,7 @@
       <c r="A358" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="2">
         <v>1.49</v>
       </c>
     </row>
@@ -4379,7 +4387,7 @@
       <c r="A359" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="2">
         <v>9.949999999999999</v>
       </c>
     </row>
@@ -4387,7 +4395,7 @@
       <c r="A360" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="2">
         <v>1.66</v>
       </c>
     </row>
@@ -4395,7 +4403,7 @@
       <c r="A361" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="2">
         <v>5.07</v>
       </c>
     </row>
@@ -4403,7 +4411,7 @@
       <c r="A362" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="2">
         <v>2.97</v>
       </c>
     </row>
@@ -4411,7 +4419,7 @@
       <c r="A363" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="2">
         <v>1.63</v>
       </c>
     </row>
@@ -4419,7 +4427,7 @@
       <c r="A364" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="2">
         <v>0.89</v>
       </c>
     </row>
@@ -4427,7 +4435,7 @@
       <c r="A365" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="2">
         <v>5.18</v>
       </c>
     </row>
@@ -4435,7 +4443,7 @@
       <c r="A366" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="2">
         <v>1.93</v>
       </c>
     </row>
@@ -4443,7 +4451,7 @@
       <c r="A367" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="2">
         <v>1.94</v>
       </c>
     </row>
@@ -4451,7 +4459,7 @@
       <c r="A368" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="2">
         <v>4.22</v>
       </c>
     </row>
@@ -4459,7 +4467,7 @@
       <c r="A369" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="2">
         <v>2.44</v>
       </c>
     </row>
@@ -4467,7 +4475,7 @@
       <c r="A370" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="2">
         <v>3.85</v>
       </c>
     </row>
@@ -4475,7 +4483,7 @@
       <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="2">
         <v>1.79</v>
       </c>
     </row>
@@ -4483,7 +4491,7 @@
       <c r="A372" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="2">
         <v>0.42</v>
       </c>
     </row>
@@ -4491,7 +4499,7 @@
       <c r="A373" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="2">
         <v>1.88</v>
       </c>
     </row>
@@ -4499,7 +4507,7 @@
       <c r="A374" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="2">
         <v>2.97</v>
       </c>
     </row>
@@ -4507,7 +4515,7 @@
       <c r="A375" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="2">
         <v>0.78</v>
       </c>
     </row>
@@ -4515,7 +4523,7 @@
       <c r="A376" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="2">
         <v>1.2</v>
       </c>
     </row>
@@ -4523,7 +4531,7 @@
       <c r="A377" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="2">
         <v>0.68</v>
       </c>
     </row>
